--- a/assets/data/AffixConfig.xlsx
+++ b/assets/data/AffixConfig.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\Documents\Warcraft III\Maps\Zulaman-WE\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\workspace\Zulaman-WE\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDA2339-BC84-470A-9B14-4CEC6507CE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A745A0-AA4C-4B15-BC60-2AE9BAAC10E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2265" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="152">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,17 +195,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IAFX_SUFIX</t>
-  </si>
-  <si>
-    <t>IAFX_PREFIX</t>
-  </si>
-  <si>
     <t>Attributes</t>
-  </si>
-  <si>
-    <t>[]TVarAttr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>属性</t>
@@ -445,6 +436,75 @@
   </si>
   <si>
     <t>lkey_afx_succubus</t>
+  </si>
+  <si>
+    <t>ObjectType</t>
+  </si>
+  <si>
+    <t>FieldName</t>
+  </si>
+  <si>
+    <t>FieldType</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>对象类型</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>枚举值</t>
+  </si>
+  <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>特性</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>Suffix</t>
+  </si>
+  <si>
+    <t>前缀</t>
+  </si>
+  <si>
+    <t>后缀</t>
+  </si>
+  <si>
+    <t>EAffixType</t>
+  </si>
+  <si>
+    <t>[]IVarAttr</t>
   </si>
 </sst>
 </file>
@@ -455,13 +515,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -470,9 +530,10 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,6 +543,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,8 +568,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,57 +853,58 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.25" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="C2" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -850,691 +918,691 @@
       <c r="C4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="C11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E26" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1">
+        <v>24</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E28" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E30" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E32" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1">
+        <v>29</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1">
+        <v>31</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="1">
+        <v>33</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1">
+        <v>34</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>18</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26">
-        <v>22</v>
-      </c>
-      <c r="C26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>23</v>
-      </c>
-      <c r="C27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>24</v>
-      </c>
-      <c r="C28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31">
-        <v>27</v>
-      </c>
-      <c r="C31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32">
-        <v>28</v>
-      </c>
-      <c r="C32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
+      <c r="E38" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="1">
         <v>35</v>
       </c>
-      <c r="B33">
-        <v>29</v>
-      </c>
-      <c r="C33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
+      <c r="C39" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="1">
         <v>36</v>
       </c>
-      <c r="B34">
-        <v>30</v>
-      </c>
-      <c r="C34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
+      <c r="C40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="1">
         <v>37</v>
       </c>
-      <c r="B35">
-        <v>31</v>
-      </c>
-      <c r="C35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
+      <c r="C41" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="1">
         <v>38</v>
       </c>
-      <c r="B36">
-        <v>32</v>
-      </c>
-      <c r="C36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
+      <c r="C42" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="1">
         <v>39</v>
       </c>
-      <c r="B37">
-        <v>33</v>
-      </c>
-      <c r="C37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
+      <c r="C43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="1">
         <v>40</v>
       </c>
-      <c r="B38">
-        <v>34</v>
-      </c>
-      <c r="C38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39">
-        <v>35</v>
-      </c>
-      <c r="C39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40">
-        <v>36</v>
-      </c>
-      <c r="C40" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41">
-        <v>37</v>
-      </c>
-      <c r="C41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C44" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E44" s="1" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42">
-        <v>38</v>
-      </c>
-      <c r="C42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43">
-        <v>39</v>
-      </c>
-      <c r="C43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44">
-        <v>40</v>
-      </c>
-      <c r="C44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1542,4 +1610,114 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB6B041-64A7-4675-A649-06C5123CD911}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>